--- a/docs/shrcore/shr-core-RepeatFrequency-model.xlsx
+++ b/docs/shrcore/shr-core-RepeatFrequency-model.xlsx
@@ -143,11 +143,11 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {[]} {[]}
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Integer representing the number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+    <t>PositiveInt representing the number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="176.83984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.83984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
